--- a/publication/analyses/outputs/field_dependent_effects/gdptlab_fit_results.xlsx
+++ b/publication/analyses/outputs/field_dependent_effects/gdptlab_fit_results.xlsx
@@ -480,10 +480,10 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3.65342005427248e-06</v>
+        <v>3.653404032996245e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.80829537787528</v>
+        <v>-47.80828328439721</v>
       </c>
       <c r="D2" t="n">
         <v>88.5779037566686</v>
@@ -492,10 +492,10 @@
         <v>770.8963676195477</v>
       </c>
       <c r="F2" t="n">
-        <v>1.179304998696024</v>
+        <v>1.179303168691142</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5457455229380983</v>
+        <v>0.5457427297011228</v>
       </c>
       <c r="H2" t="n">
         <v>91</v>
@@ -506,10 +506,10 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1.868075145758537e-06</v>
+        <v>1.86807554185892e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>-43.14635803198963</v>
+        <v>-43.1463581034952</v>
       </c>
       <c r="D3" t="n">
         <v>88.21044322604301</v>
@@ -518,10 +518,10 @@
         <v>733.624420698693</v>
       </c>
       <c r="F3" t="n">
-        <v>1.176132574092341</v>
+        <v>1.176132584817165</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5360954426089902</v>
+        <v>0.5360954634727222</v>
       </c>
       <c r="H3" t="n">
         <v>90</v>
@@ -532,10 +532,10 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>7.255174860407819e-07</v>
+        <v>7.255214740300602e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.68518843851263</v>
+        <v>-37.68519009447498</v>
       </c>
       <c r="D4" t="n">
         <v>146.3714630657717</v>
@@ -544,10 +544,10 @@
         <v>709.633676277357</v>
       </c>
       <c r="F4" t="n">
-        <v>1.750913184222645</v>
+        <v>1.750913128917661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5853804834664561</v>
+        <v>0.5853806471809635</v>
       </c>
       <c r="H4" t="n">
         <v>74</v>
@@ -558,10 +558,10 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.976782451923125e-07</v>
+        <v>-8.976785608044853e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.98388033521915</v>
+        <v>-32.98388033237011</v>
       </c>
       <c r="D5" t="n">
         <v>87.07059651952528</v>
@@ -570,10 +570,10 @@
         <v>709.5294438146223</v>
       </c>
       <c r="F5" t="n">
-        <v>1.308543171325296</v>
+        <v>1.308543170707941</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5490247314158243</v>
+        <v>0.5490247276769158</v>
       </c>
       <c r="H5" t="n">
         <v>111</v>
@@ -584,10 +584,10 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.157253868304303e-06</v>
+        <v>-2.157253778439209e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>-28.40995576350307</v>
+        <v>-28.40995576474832</v>
       </c>
       <c r="D6" t="n">
         <v>87.00993476288129</v>
@@ -596,10 +596,10 @@
         <v>826.080936604742</v>
       </c>
       <c r="F6" t="n">
-        <v>1.019808236383651</v>
+        <v>1.019808236769344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5242580848608818</v>
+        <v>0.5242580891721453</v>
       </c>
       <c r="H6" t="n">
         <v>185</v>
@@ -610,10 +610,10 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.227042049012845e-06</v>
+        <v>-2.227041908405351e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.86769729371633</v>
+        <v>-22.86769740813532</v>
       </c>
       <c r="D7" t="n">
         <v>86.02343577742212</v>
@@ -622,10 +622,10 @@
         <v>826.4253593574985</v>
       </c>
       <c r="F7" t="n">
-        <v>1.004776185478362</v>
+        <v>1.004776237246543</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6343985589031376</v>
+        <v>0.6343985559026735</v>
       </c>
       <c r="H7" t="n">
         <v>209</v>
@@ -636,10 +636,10 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.235160606868211e-06</v>
+        <v>-2.235160582961548e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.20520397000868</v>
+        <v>-18.20520396847115</v>
       </c>
       <c r="D8" t="n">
         <v>85.62491873279768</v>
@@ -648,10 +648,10 @@
         <v>826.7303719105375</v>
       </c>
       <c r="F8" t="n">
-        <v>1.057075733293406</v>
+        <v>1.05707573262001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6896025185363915</v>
+        <v>0.6896025192118465</v>
       </c>
       <c r="H8" t="n">
         <v>212</v>
@@ -662,10 +662,10 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.046732646639098e-06</v>
+        <v>-2.046732274371476e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.53538203551962</v>
+        <v>-13.53538230868667</v>
       </c>
       <c r="D9" t="n">
         <v>87.96732686196748</v>
@@ -674,10 +674,10 @@
         <v>827.1920289909676</v>
       </c>
       <c r="F9" t="n">
-        <v>1.10258644786571</v>
+        <v>1.102586549813343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7220895916417793</v>
+        <v>0.7220895673547141</v>
       </c>
       <c r="H9" t="n">
         <v>202</v>
@@ -688,10 +688,10 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.389830927986901e-06</v>
+        <v>-1.38982987803629e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.412366102243345</v>
+        <v>-8.412366981061536</v>
       </c>
       <c r="D10" t="n">
         <v>87.60784133680548</v>
@@ -700,10 +700,10 @@
         <v>772.6855271073306</v>
       </c>
       <c r="F10" t="n">
-        <v>1.544017814473139</v>
+        <v>1.544018155860272</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6861266821141065</v>
+        <v>0.6861266834945705</v>
       </c>
       <c r="H10" t="n">
         <v>170</v>
@@ -714,10 +714,10 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="B11" t="n">
-        <v>4.785425410369574e-06</v>
+        <v>4.785425398001128e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.162115875665234</v>
+        <v>-4.162115872956934</v>
       </c>
       <c r="D11" t="n">
         <v>87.31470706420379</v>
@@ -726,10 +726,10 @@
         <v>772.5184113857581</v>
       </c>
       <c r="F11" t="n">
-        <v>2.730340097141774</v>
+        <v>2.730340096728264</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7090236499741533</v>
+        <v>0.7090236503239213</v>
       </c>
       <c r="H11" t="n">
         <v>193</v>
@@ -740,7 +740,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.290084171607892e-06</v>
+        <v>-6.290083840230328e-06</v>
       </c>
       <c r="C12" t="n">
         <v>1.5</v>
@@ -752,10 +752,10 @@
         <v>772.5743203653634</v>
       </c>
       <c r="F12" t="n">
-        <v>1.552831213247069</v>
+        <v>1.552831182165822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4819775121533856</v>
+        <v>0.4819775292964908</v>
       </c>
       <c r="H12" t="n">
         <v>192</v>
@@ -766,10 +766,10 @@
         <v>6.900000000000006</v>
       </c>
       <c r="B13" t="n">
-        <v>-9.740956517996846e-06</v>
+        <v>-9.740955936775191e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>6.883590571785826</v>
+        <v>6.883589876468301</v>
       </c>
       <c r="D13" t="n">
         <v>206.6524249297134</v>
@@ -778,10 +778,10 @@
         <v>654.4652123759919</v>
       </c>
       <c r="F13" t="n">
-        <v>1.723151020541272</v>
+        <v>1.72315097322248</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3342940140293806</v>
+        <v>0.3342942120072439</v>
       </c>
       <c r="H13" t="n">
         <v>43</v>
@@ -792,10 +792,10 @@
         <v>11.90000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.391794742188373e-06</v>
+        <v>-8.391794736167239e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>12.29422759822129</v>
+        <v>12.29422759721204</v>
       </c>
       <c r="D14" t="n">
         <v>206.482725585017</v>
@@ -804,10 +804,10 @@
         <v>625.8949088113651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6804451629277676</v>
+        <v>0.6804451629970919</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7699987839466773</v>
+        <v>0.7699987839166507</v>
       </c>
       <c r="H14" t="n">
         <v>26</v>
@@ -818,10 +818,10 @@
         <v>16.90000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.832152109173356e-06</v>
+        <v>-7.832174135940987e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>17.00708776609422</v>
+        <v>17.00709991497616</v>
       </c>
       <c r="D15" t="n">
         <v>158.2860404703793</v>
@@ -830,10 +830,10 @@
         <v>734.7068382277916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8453713265949414</v>
+        <v>0.8453722637510411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6583891638081907</v>
+        <v>0.6583926731692606</v>
       </c>
       <c r="H15" t="n">
         <v>36</v>
@@ -844,10 +844,10 @@
         <v>26.90000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>-9.394131535424148e-06</v>
+        <v>-9.394131503326463e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>27.84518183438559</v>
+        <v>27.84518183297602</v>
       </c>
       <c r="D16" t="n">
         <v>87.01593297241631</v>
@@ -856,10 +856,10 @@
         <v>615.7466714501821</v>
       </c>
       <c r="F16" t="n">
-        <v>1.024800679169647</v>
+        <v>1.024800678958034</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2934207357126892</v>
+        <v>0.2934207367119203</v>
       </c>
       <c r="H16" t="n">
         <v>26</v>
@@ -870,10 +870,10 @@
         <v>31.90000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.247110997097638e-06</v>
+        <v>-8.247110974508695e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>32.63277172314477</v>
+        <v>32.63277172154561</v>
       </c>
       <c r="D17" t="n">
         <v>86.85018533265635</v>
@@ -882,10 +882,10 @@
         <v>734.6759949288084</v>
       </c>
       <c r="F17" t="n">
-        <v>1.127394817160503</v>
+        <v>1.127394817474016</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7186177409112695</v>
+        <v>0.7186177413072016</v>
       </c>
       <c r="H17" t="n">
         <v>133</v>
@@ -896,10 +896,10 @@
         <v>36.90000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>-9.346526083979091e-06</v>
+        <v>-9.346524988990895e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>37.69291482618024</v>
+        <v>37.69291322976679</v>
       </c>
       <c r="D18" t="n">
         <v>86.89998033087674</v>
@@ -908,10 +908,10 @@
         <v>773.0996886118246</v>
       </c>
       <c r="F18" t="n">
-        <v>1.229755904304233</v>
+        <v>1.229756179740974</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7090685962886241</v>
+        <v>0.7090685878855896</v>
       </c>
       <c r="H18" t="n">
         <v>133</v>
@@ -922,10 +922,10 @@
         <v>41.90000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.195955927152867e-06</v>
+        <v>-9.195955929644758e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>42.43896635786598</v>
+        <v>42.43896634641209</v>
       </c>
       <c r="D19" t="n">
         <v>86.59486943944944</v>
@@ -934,10 +934,10 @@
         <v>772.2215792022571</v>
       </c>
       <c r="F19" t="n">
-        <v>1.532047261733138</v>
+        <v>1.532047263089286</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6999987371176947</v>
+        <v>0.6999987370391414</v>
       </c>
       <c r="H19" t="n">
         <v>133</v>
@@ -948,10 +948,10 @@
         <v>46.90000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.089221877966645e-05</v>
+        <v>-1.089223852532659e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>47.73905463312075</v>
+        <v>47.73906567743064</v>
       </c>
       <c r="D20" t="n">
         <v>86.80773214068127</v>
@@ -960,10 +960,10 @@
         <v>734.6029182247585</v>
       </c>
       <c r="F20" t="n">
-        <v>1.41737835887354</v>
+        <v>1.417376982638771</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6178151899229865</v>
+        <v>0.6178164496328943</v>
       </c>
       <c r="H20" t="n">
         <v>121</v>
@@ -974,10 +974,10 @@
         <v>51.90000000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.202622510334351e-05</v>
+        <v>-1.202622543386649e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>53.27214888613013</v>
+        <v>53.27214946097494</v>
       </c>
       <c r="D21" t="n">
         <v>87.01688811700902</v>
@@ -986,10 +986,10 @@
         <v>771.6850418908354</v>
       </c>
       <c r="F21" t="n">
-        <v>1.792540112754131</v>
+        <v>1.792540142148251</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2944089610772537</v>
+        <v>0.2944090096109636</v>
       </c>
       <c r="H21" t="n">
         <v>125</v>

--- a/publication/analyses/outputs/field_dependent_effects/gdptlab_fit_results.xlsx
+++ b/publication/analyses/outputs/field_dependent_effects/gdptlab_fit_results.xlsx
@@ -480,10 +480,10 @@
         <v>-48.09999999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>3.653404032996245e-06</v>
+        <v>3.653403996575871e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.80828328439721</v>
+        <v>-47.80828328181187</v>
       </c>
       <c r="D2" t="n">
         <v>88.5779037566686</v>
@@ -492,10 +492,10 @@
         <v>770.8963676195477</v>
       </c>
       <c r="F2" t="n">
-        <v>1.179303168691142</v>
+        <v>1.179303168300742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5457427297011228</v>
+        <v>0.545742728897731</v>
       </c>
       <c r="H2" t="n">
         <v>91</v>
@@ -506,10 +506,10 @@
         <v>-43.09999999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1.86807554185892e-06</v>
+        <v>1.86807585099526e-06</v>
       </c>
       <c r="C3" t="n">
-        <v>-43.1463581034952</v>
+        <v>-43.14635836850329</v>
       </c>
       <c r="D3" t="n">
         <v>88.21044322604301</v>
@@ -518,10 +518,10 @@
         <v>733.624420698693</v>
       </c>
       <c r="F3" t="n">
-        <v>1.176132584817165</v>
+        <v>1.176132624419819</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5360954634727222</v>
+        <v>0.5360955132035257</v>
       </c>
       <c r="H3" t="n">
         <v>90</v>
@@ -532,10 +532,10 @@
         <v>-38.09999999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>7.255214740300602e-07</v>
+        <v>7.255198007947675e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>-37.68519009447498</v>
+        <v>-37.68519041376937</v>
       </c>
       <c r="D4" t="n">
         <v>146.3714630657717</v>
@@ -544,10 +544,10 @@
         <v>709.633676277357</v>
       </c>
       <c r="F4" t="n">
-        <v>1.750913128917661</v>
+        <v>1.750913118251204</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5853806471809635</v>
+        <v>0.5853806476211769</v>
       </c>
       <c r="H4" t="n">
         <v>74</v>
@@ -558,10 +558,10 @@
         <v>-33.09999999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.976785608044853e-07</v>
+        <v>-8.976765795335908e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>-32.98388033237011</v>
+        <v>-32.98388251965223</v>
       </c>
       <c r="D5" t="n">
         <v>87.07059651952528</v>
@@ -570,10 +570,10 @@
         <v>709.5294438146223</v>
       </c>
       <c r="F5" t="n">
-        <v>1.308543170707941</v>
+        <v>1.308543640416924</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5490247276769158</v>
+        <v>0.5490248196086824</v>
       </c>
       <c r="H5" t="n">
         <v>111</v>
@@ -584,10 +584,10 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.157253778439209e-06</v>
+        <v>-2.157246339482253e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>-28.40995576474832</v>
+        <v>-28.40996244040845</v>
       </c>
       <c r="D6" t="n">
         <v>87.00993476288129</v>
@@ -596,10 +596,10 @@
         <v>826.080936604742</v>
       </c>
       <c r="F6" t="n">
-        <v>1.019808236769344</v>
+        <v>1.019810318234535</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5242580891721453</v>
+        <v>0.524259151365202</v>
       </c>
       <c r="H6" t="n">
         <v>185</v>
@@ -610,10 +610,10 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.227041908405351e-06</v>
+        <v>-2.227041989186249e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>-22.86769740813532</v>
+        <v>-22.86769733400464</v>
       </c>
       <c r="D7" t="n">
         <v>86.02343577742212</v>
@@ -622,10 +622,10 @@
         <v>826.4253593574985</v>
       </c>
       <c r="F7" t="n">
-        <v>1.004776237246543</v>
+        <v>1.004776203646635</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6343985559026735</v>
+        <v>0.6343985581391738</v>
       </c>
       <c r="H7" t="n">
         <v>209</v>
@@ -636,10 +636,10 @@
         <v>-18.09999999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.235160582961548e-06</v>
+        <v>-2.235160606646159e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>-18.20520396847115</v>
+        <v>-18.20520396538731</v>
       </c>
       <c r="D8" t="n">
         <v>85.62491873279768</v>
@@ -648,10 +648,10 @@
         <v>826.7303719105375</v>
       </c>
       <c r="F8" t="n">
-        <v>1.05707573262001</v>
+        <v>1.057075731303023</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6896025192118465</v>
+        <v>0.6896025190776078</v>
       </c>
       <c r="H8" t="n">
         <v>212</v>
@@ -662,10 +662,10 @@
         <v>-13.09999999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.046732274371476e-06</v>
+        <v>-2.046732209349034e-06</v>
       </c>
       <c r="C9" t="n">
-        <v>-13.53538230868667</v>
+        <v>-13.53538236173276</v>
       </c>
       <c r="D9" t="n">
         <v>87.96732686196748</v>
@@ -674,10 +674,10 @@
         <v>827.1920289909676</v>
       </c>
       <c r="F9" t="n">
-        <v>1.102586549813343</v>
+        <v>1.102586569670845</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7220895673547141</v>
+        <v>0.7220895626295096</v>
       </c>
       <c r="H9" t="n">
         <v>202</v>
@@ -688,10 +688,10 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.38982987803629e-06</v>
+        <v>-1.389830998804184e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>-8.412366981061536</v>
+        <v>-8.412366091911085</v>
       </c>
       <c r="D10" t="n">
         <v>87.60784133680548</v>
@@ -700,10 +700,10 @@
         <v>772.6855271073306</v>
       </c>
       <c r="F10" t="n">
-        <v>1.544018155860272</v>
+        <v>1.544017810455057</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6861266834945705</v>
+        <v>0.6861266822078425</v>
       </c>
       <c r="H10" t="n">
         <v>170</v>
@@ -714,10 +714,10 @@
         <v>-3.099999999999994</v>
       </c>
       <c r="B11" t="n">
-        <v>4.785425398001128e-06</v>
+        <v>4.785425396918217e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.162115872956934</v>
+        <v>-4.162115875790266</v>
       </c>
       <c r="D11" t="n">
         <v>87.31470706420379</v>
@@ -726,10 +726,10 @@
         <v>772.5184113857581</v>
       </c>
       <c r="F11" t="n">
-        <v>2.730340096728264</v>
+        <v>2.730340097158009</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7090236503239213</v>
+        <v>0.7090236505369171</v>
       </c>
       <c r="H11" t="n">
         <v>193</v>
@@ -740,7 +740,7 @@
         <v>1.900000000000006</v>
       </c>
       <c r="B12" t="n">
-        <v>-6.290083840230328e-06</v>
+        <v>-6.290083700053772e-06</v>
       </c>
       <c r="C12" t="n">
         <v>1.5</v>
@@ -752,10 +752,10 @@
         <v>772.5743203653634</v>
       </c>
       <c r="F12" t="n">
-        <v>1.552831182165822</v>
+        <v>1.552831168711222</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4819775292964908</v>
+        <v>0.4819775360456918</v>
       </c>
       <c r="H12" t="n">
         <v>192</v>
@@ -766,10 +766,10 @@
         <v>6.900000000000006</v>
       </c>
       <c r="B13" t="n">
-        <v>-9.740955936775191e-06</v>
+        <v>-9.740956516575845e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>6.883589876468301</v>
+        <v>6.883590572356014</v>
       </c>
       <c r="D13" t="n">
         <v>206.6524249297134</v>
@@ -778,10 +778,10 @@
         <v>654.4652123759919</v>
       </c>
       <c r="F13" t="n">
-        <v>1.72315097322248</v>
+        <v>1.723151020579502</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3342942120072439</v>
+        <v>0.3342940138176422</v>
       </c>
       <c r="H13" t="n">
         <v>43</v>
@@ -792,10 +792,10 @@
         <v>11.90000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.391794736167239e-06</v>
+        <v>-8.391795432015473e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>12.29422759721204</v>
+        <v>12.29422626908773</v>
       </c>
       <c r="D14" t="n">
         <v>206.482725585017</v>
@@ -804,10 +804,10 @@
         <v>625.8949088113651</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6804451629970919</v>
+        <v>0.6804452514488968</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7699987839166507</v>
+        <v>0.7699987753707979</v>
       </c>
       <c r="H14" t="n">
         <v>26</v>
@@ -818,10 +818,10 @@
         <v>16.90000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>-7.832174135940987e-06</v>
+        <v>-7.832174168204204e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>17.00709991497616</v>
+        <v>17.0070999131628</v>
       </c>
       <c r="D15" t="n">
         <v>158.2860404703793</v>
@@ -830,10 +830,10 @@
         <v>734.7068382277916</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8453722637510411</v>
+        <v>0.8453722636106938</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6583926731692606</v>
+        <v>0.658392669825637</v>
       </c>
       <c r="H15" t="n">
         <v>36</v>
@@ -844,10 +844,10 @@
         <v>26.90000000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>-9.394131503326463e-06</v>
+        <v>-9.394131447997525e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>27.84518183297602</v>
+        <v>27.8451818358611</v>
       </c>
       <c r="D16" t="n">
         <v>87.01593297241631</v>
@@ -856,10 +856,10 @@
         <v>615.7466714501821</v>
       </c>
       <c r="F16" t="n">
-        <v>1.024800678958034</v>
+        <v>1.024800679407351</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2934207367119203</v>
+        <v>0.2934207371366582</v>
       </c>
       <c r="H16" t="n">
         <v>26</v>
@@ -870,10 +870,10 @@
         <v>31.90000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>-8.247110974508695e-06</v>
+        <v>-8.247104092987721e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>32.63277172154561</v>
+        <v>32.6327671159276</v>
       </c>
       <c r="D17" t="n">
         <v>86.85018533265635</v>
@@ -882,10 +882,10 @@
         <v>734.6759949288084</v>
       </c>
       <c r="F17" t="n">
-        <v>1.127394817474016</v>
+        <v>1.127395719448727</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7186177413072016</v>
+        <v>0.7186179980470271</v>
       </c>
       <c r="H17" t="n">
         <v>133</v>
@@ -896,10 +896,10 @@
         <v>36.90000000000001</v>
       </c>
       <c r="B18" t="n">
-        <v>-9.346524988990895e-06</v>
+        <v>-9.346534515794565e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>37.69291322976679</v>
+        <v>37.69292631788439</v>
       </c>
       <c r="D18" t="n">
         <v>86.89998033087674</v>
@@ -908,10 +908,10 @@
         <v>773.0996886118246</v>
       </c>
       <c r="F18" t="n">
-        <v>1.229756179740974</v>
+        <v>1.229753961543356</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7090685878855896</v>
+        <v>0.7090686361170955</v>
       </c>
       <c r="H18" t="n">
         <v>133</v>
@@ -922,10 +922,10 @@
         <v>41.90000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.195955929644758e-06</v>
+        <v>-9.195955864182385e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>42.43896634641209</v>
+        <v>42.43896634748508</v>
       </c>
       <c r="D19" t="n">
         <v>86.59486943944944</v>
@@ -934,10 +934,10 @@
         <v>772.2215792022571</v>
       </c>
       <c r="F19" t="n">
-        <v>1.532047263089286</v>
+        <v>1.532047262945753</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6999987370391414</v>
+        <v>0.6999987380910926</v>
       </c>
       <c r="H19" t="n">
         <v>133</v>
@@ -948,10 +948,10 @@
         <v>46.90000000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.089223852532659e-05</v>
+        <v>-1.089222239699958e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>47.73906567743064</v>
+        <v>47.7390566550323</v>
       </c>
       <c r="D20" t="n">
         <v>86.80773214068127</v>
@@ -960,10 +960,10 @@
         <v>734.6029182247585</v>
       </c>
       <c r="F20" t="n">
-        <v>1.417376982638771</v>
+        <v>1.417378104934742</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6178164496328943</v>
+        <v>0.6178154202415445</v>
       </c>
       <c r="H20" t="n">
         <v>121</v>
@@ -974,10 +974,10 @@
         <v>51.90000000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.202622543386649e-05</v>
+        <v>-1.202622547191456e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>53.27214946097494</v>
+        <v>53.27214947375981</v>
       </c>
       <c r="D21" t="n">
         <v>87.01688811700902</v>
@@ -986,10 +986,10 @@
         <v>771.6850418908354</v>
       </c>
       <c r="F21" t="n">
-        <v>1.792540142148251</v>
+        <v>1.792540142806218</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2944090096109636</v>
+        <v>0.2944090087974504</v>
       </c>
       <c r="H21" t="n">
         <v>125</v>
